--- a/王语晗/tp_shop_wrong_tel.xlsx
+++ b/王语晗/tp_shop_wrong_tel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>15188888888</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>密码有效长度为6-16位！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -446,10 +470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,9 +482,10 @@
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +501,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -493,8 +521,11 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -510,8 +541,11 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -527,8 +561,11 @@
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -544,8 +581,11 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -561,8 +601,11 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -578,8 +621,11 @@
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -595,8 +641,11 @@
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -611,10 +660,14 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>